--- a/data/income_statement/2digits/size/07_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/07_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>07-Mining of metal ores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>07-Mining of metal ores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,272 +841,307 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>129360.56958</v>
+        <v>164926.59971</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>167377.51564</v>
+        <v>203886.8938</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>198494.5097</v>
+        <v>219298.67527</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>204795.1137</v>
+        <v>230728.33607</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>293727.41441</v>
+        <v>331465.88289</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>235689.84208</v>
+        <v>298050.75391</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>286142.83959</v>
+        <v>352765.94206</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>272480.6137100001</v>
+        <v>344238.10491</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>381998.07327</v>
+        <v>469197.74882</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>671546.2165999999</v>
+        <v>773269.67574</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>693185.09749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>824179.14219</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1015221.417</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>97581.31384999999</v>
+        <v>117868.11639</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>138061.68055</v>
+        <v>162969.21789</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>165230.99424</v>
+        <v>173795.89295</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>181390.01556</v>
+        <v>197191.3054</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>257174.05641</v>
+        <v>284540.08405</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>204301.49948</v>
+        <v>264513.21117</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>237819.60011</v>
+        <v>288719.63448</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>206687.7417</v>
+        <v>267248.47862</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>345926.11676</v>
+        <v>409402.3401</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>486055.7609299999</v>
+        <v>582468.98743</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>590010.0353300001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>672271.14278</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>667771.776</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>28379.86516</v>
+        <v>44028.65009</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>26856.56828</v>
+        <v>33078.72733</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>25023.93055</v>
+        <v>29770.9911</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>18520.37852</v>
+        <v>26904.80995</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>29335.02893</v>
+        <v>37735.62067</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>16619.72743</v>
+        <v>18812.49182</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>37425.91079</v>
+        <v>51133.79499</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>47729.47606</v>
+        <v>58994.44511</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>25872.63087</v>
+        <v>39477.86225999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>172496.60712</v>
+        <v>175832.44834</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>84254.69476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>134170.78594</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>294015.968</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>3399.39057</v>
+        <v>3029.83323</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2459.26681</v>
+        <v>7838.94858</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>8239.58491</v>
+        <v>15731.79122</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>4884.71962</v>
+        <v>6632.22072</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7218.329070000001</v>
+        <v>9190.178169999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>14768.61517</v>
+        <v>14725.05092</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>10897.32869</v>
+        <v>12912.51259</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>18063.39595</v>
+        <v>17995.18118</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>10199.32564</v>
+        <v>20317.54646</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>12993.84855</v>
+        <v>14968.23997</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>18920.3674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17737.21347</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>53433.673</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2014.01647</v>
+        <v>2364.47343</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>489.39768</v>
+        <v>564.10059</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>182.93543</v>
+        <v>379.57438</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6046.01149</v>
+        <v>5506.96179</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>873.86574</v>
+        <v>5223.39512</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>175.88603</v>
+        <v>6914.16057</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2487.66484</v>
+        <v>4121.20834</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>879.81592</v>
+        <v>3284.66087</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>3375.71632</v>
+        <v>3977.09782</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1860.34095</v>
+        <v>19757.58585</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8982.704800000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>22810.19261</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>8947.16</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>276.61903</v>
+        <v>309.26263</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>264.36268</v>
+        <v>270.51934</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>66.38776</v>
+        <v>58.01536</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5815.75784</v>
+        <v>5266.11174</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>371.15121</v>
+        <v>3943.53872</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>74.76509</v>
+        <v>6743.08446</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2256.29085</v>
+        <v>3703.46717</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>590.16876</v>
+        <v>1950.99155</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>3305.06314</v>
+        <v>3906.44464</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>641.6118299999999</v>
+        <v>18500.66493</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>8118.32878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>21495.09465</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>8083.078</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>275.00031</v>
+        <v>449.0113299999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>8.159649999999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>18.8503</v>
+        <v>5.87956</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>77.88321999999999</v>
+        <v>79.52978</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>417.3195</v>
+        <v>1194.89329</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1.55871</v>
+        <v>52.93518</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>62.06648000000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>103.24541</v>
+        <v>779.25665</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>58.39197</v>
@@ -1214,559 +1150,634 @@
         <v>860.65595</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>554.5850700000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>828.46429</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>667.46</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1462.39713</v>
+        <v>1606.19947</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>216.87535</v>
+        <v>285.4216</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>97.69736999999999</v>
+        <v>315.67946</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>152.37043</v>
+        <v>161.32027</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>85.39503000000001</v>
+        <v>84.96311</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>99.56223</v>
+        <v>118.14093</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>169.30751</v>
+        <v>355.67469</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>186.40175</v>
+        <v>554.41267</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>12.26121</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>358.07317</v>
+        <v>396.2649699999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>309.79095</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>486.63367</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>196.622</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>127346.55311</v>
+        <v>162562.12628</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>166888.11796</v>
+        <v>203322.79321</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>198311.57427</v>
+        <v>218919.10089</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>198749.10221</v>
+        <v>225221.37428</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>292853.54867</v>
+        <v>326242.48777</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>235513.95605</v>
+        <v>291136.59334</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>283655.17475</v>
+        <v>348644.73372</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>271600.79779</v>
+        <v>340953.44404</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>378622.35695</v>
+        <v>465220.651</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>669685.8756500001</v>
+        <v>753512.0898899999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>684202.3926899999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>801368.94958</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1006274.257</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>112806.43583</v>
+        <v>142898.75987</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>134381.30367</v>
+        <v>163823.59606</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>159907.43894</v>
+        <v>172154.53731</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>173430.23554</v>
+        <v>196317.81199</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>259896.62309</v>
+        <v>283554.03423</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>196547.59745</v>
+        <v>239682.90427</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>244357.32002</v>
+        <v>294925.53251</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>234867.91435</v>
+        <v>289561.83813</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>318845.82238</v>
+        <v>384789.25505</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>521413.74092</v>
+        <v>577329.6705700001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>567454.6364600001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>662087.5736799999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>795430.627</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>56026.29792</v>
+        <v>70140.70294999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>76842.06668</v>
+        <v>91901.30298000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>95234.45721000001</v>
+        <v>101790.93196</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>107044.22247</v>
+        <v>123264.06199</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>144064.10945</v>
+        <v>164773.47143</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>85579.60320999999</v>
+        <v>104475.61078</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>119278.24297</v>
+        <v>152841.40306</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>80603.62424999999</v>
+        <v>126355.58848</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>164590.93593</v>
+        <v>207593.36338</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>194167.62316</v>
+        <v>232020.20358</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>230515.12641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>251108.68274</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>319384.814</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>28789.88162</v>
+        <v>38018.91093999999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>21337.73489</v>
+        <v>29196.62165</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>19959.12107</v>
+        <v>21213.22974</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>20239.94131</v>
+        <v>24614.36112</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>56925.7441</v>
+        <v>60864.09192</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>53635.82846</v>
+        <v>67806.79543</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>82107.4892</v>
+        <v>89618.43444999999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>111733.42022</v>
+        <v>120883.52693</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>111848.97296</v>
+        <v>121083.88106</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>259907.14787</v>
+        <v>269588.92439</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>245296.2384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>298088.57536</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>347402.781</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>27457.31909</v>
+        <v>34206.20878</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>25863.13914</v>
+        <v>29572.68031</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>42524.76616</v>
+        <v>44225.51804</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>45956.51122</v>
+        <v>48198.99318</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>53897.19944</v>
+        <v>53358.83883</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>52219.32791</v>
+        <v>60613.45462999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>38906.74022</v>
+        <v>47334.37814</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>37921.27136</v>
+        <v>38006.80802</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>38115.1078</v>
+        <v>49032.9828</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>62088.27004</v>
+        <v>72144.10248</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>87078.75364999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>108209.86373</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>117502.898</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>532.9372</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>10338.36296</v>
+        <v>13152.99112</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2189.0945</v>
+        <v>4924.85757</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>189.56054</v>
+        <v>240.3957</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5009.5701</v>
+        <v>4557.63205</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5112.83787</v>
+        <v>6787.04343</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4064.84763</v>
+        <v>5131.31686</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4609.59852</v>
+        <v>4315.9147</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4290.805689999999</v>
+        <v>7079.02781</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>5250.699850000001</v>
+        <v>3576.44012</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4564.518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4680.451849999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>11140.134</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>14540.11728</v>
+        <v>19663.36641</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>32506.81429</v>
+        <v>39499.19715</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>38404.13533</v>
+        <v>46764.56358</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>25318.86667</v>
+        <v>28903.56229</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>32956.92558</v>
+        <v>42688.45354</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>38966.3586</v>
+        <v>51453.68907</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>39297.85473000001</v>
+        <v>53719.20121</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>36732.88344</v>
+        <v>51391.60591000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>59776.53457</v>
+        <v>80431.39595000001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>148272.13473</v>
+        <v>176182.41932</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>116747.75623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>139281.3759</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>210843.63</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>16022.73113</v>
+        <v>29438.33807</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>31402.57693</v>
+        <v>41718.2814</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>42942.66628</v>
+        <v>58414.56499</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>39465.22417</v>
+        <v>49845.48745</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>45814.98894</v>
+        <v>62355.61966</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>49957.93731</v>
+        <v>54020.14075999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>51611.95849</v>
+        <v>81738.42100999999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>47397.93269</v>
+        <v>70666.71184999999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>58856.60316000001</v>
+        <v>88223.72382000001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>125447.05144</v>
+        <v>161557.80707</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>127197.44465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>162107.78508</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>284781.94</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>888.41004</v>
+        <v>834.7594</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1612.389</v>
+        <v>1499.7652</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1370.04884</v>
+        <v>1816.89465</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3803.22922</v>
+        <v>3734.09246</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1654.83339</v>
+        <v>851.38671</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1190.11952</v>
+        <v>2719.13825</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1590.28434</v>
+        <v>2238.52377</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2621.96239</v>
+        <v>1817.73493</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2979.72796</v>
+        <v>3396.95664</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3456.96924</v>
+        <v>1899.61438</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>14189.14434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17973.85471</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>24586.274</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3840.77179</v>
+        <v>6361.590399999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>10117.48847</v>
+        <v>11162.02489</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>10302.85363</v>
+        <v>11775.2616</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>10084.24871</v>
+        <v>10308.54303</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>10258.19926</v>
+        <v>13159.99644</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>9816.147210000001</v>
+        <v>13413.14165</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>10670.94703</v>
+        <v>15566.90573</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6890.058119999999</v>
+        <v>14026.52068</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>10494.50255</v>
+        <v>11845.9061</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>53386.70281999999</v>
+        <v>52036.2876</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>29811.25842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>34315.40035</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>77422.156</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>11293.5493</v>
+        <v>22241.98827</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>19672.69946</v>
+        <v>29056.49131</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>31269.76381</v>
+        <v>44822.40874</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>25577.74624</v>
+        <v>35802.85196</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>33901.95629</v>
+        <v>48344.23651</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>38951.67058</v>
+        <v>37887.86086</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>39350.72712</v>
+        <v>63932.99151</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>37885.91218</v>
+        <v>54822.45623999999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>45382.37265</v>
+        <v>72980.86108</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>68603.37938</v>
+        <v>107621.90509</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>83197.04189000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>109818.53002</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>182773.51</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-1482.61385</v>
+        <v>-9774.971659999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1104.23736</v>
+        <v>-2219.08425</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-4538.53095</v>
+        <v>-11650.00141</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-14146.3575</v>
+        <v>-20941.92516</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-12858.06336</v>
+        <v>-19667.16612</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-10991.57871</v>
+        <v>-2566.45169</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-12314.10376</v>
+        <v>-28019.2198</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-10665.04925</v>
+        <v>-19275.10594</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>919.9314099999992</v>
+        <v>-7792.327869999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>22825.08329</v>
+        <v>14624.61225</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-10449.68842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-22826.40918</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-73938.31</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3214.37663</v>
+        <v>30568.45124</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3883.88419</v>
+        <v>102944.41406</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4584.43164</v>
+        <v>29148.32961</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7630.36484</v>
+        <v>22300.93234</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>8919.832400000001</v>
+        <v>47609.39524000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>10986.27286</v>
+        <v>20269.63341</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12870.4127</v>
+        <v>73319.73589</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>14810.64974</v>
+        <v>52941.45458</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>9601.09953</v>
+        <v>85831.80486</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>46025.78724</v>
+        <v>1507608.41434</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>22613.85542</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>286756.57553</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1451769.584</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1775,13 +1786,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>551.9501300000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>16.28177</v>
+        <v>259.47908</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>991.21269</v>
+        <v>788.70204</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>1026.34496</v>
@@ -1790,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2928.41855</v>
+        <v>1469.68617</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>150575.142</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>145.21609</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>46.97413</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
@@ -1835,55 +1851,65 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>916631.53758</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>86679.37878</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>632188.861</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>688.70651</v>
+        <v>13161.31034</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>381.07023</v>
+        <v>9644.700070000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>478.3022099999999</v>
+        <v>11222.681</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>482.38101</v>
+        <v>11540.2341</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>611.35337</v>
+        <v>28071.76103</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>624.50316</v>
+        <v>1456.90704</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>413.15583</v>
+        <v>1920.20357</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2685.68255</v>
+        <v>11363.72118</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>573.61984</v>
+        <v>9049.174289999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1224.44426</v>
+        <v>52528.16783</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2670.51958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>58870.25682</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>55940.035</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1907,139 +1933,159 @@
         <v>13.85269</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>105.77149</v>
+        <v>109.97788</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>65.35377</v>
+        <v>60.59029</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>0.08615</v>
+        <v>1632.89621</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>73.69199999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>193.11646</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>125</v>
+        <v>2058.37403</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>455.27547</v>
+        <v>0</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>0</v>
+        <v>15.92988</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0</v>
+        <v>28.85443</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>208.40661</v>
+        <v>4238.96875</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>203.1785</v>
+        <v>11810.31057</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>455.68237</v>
+        <v>460.83515</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0.01496</v>
+        <v>61.39299</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>0</v>
+        <v>1185.77246</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4998.67728</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>9898.611999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2.6864</v>
+        <v>70.55479</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>6.464600000000001</v>
+        <v>23.76898</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>21.55693</v>
+        <v>10982.63201</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1.15883</v>
+        <v>614.39315</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3.46685</v>
+        <v>48.98128</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>8.54913</v>
+        <v>0.49544</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1.13138</v>
+        <v>13.76326</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2.4329</v>
+        <v>31.92695</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0.00763</v>
+        <v>140.2116</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>15.85705</v>
+        <v>12.69011</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3.06232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>11133.68956</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1929.275</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1874.57806</v>
+        <v>13791.81832</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1990.04937</v>
+        <v>13348.44923</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2032.47843</v>
+        <v>5470.96918</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3555.23467</v>
+        <v>5977.589120000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4168.78634</v>
+        <v>13438.66259</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>6962.16056</v>
+        <v>10924.08507</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>9693.48229</v>
+        <v>27683.13558</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5490.87441</v>
+        <v>37921.15718</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5447.05877</v>
+        <v>34910.21683999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>42232.621</v>
+        <v>531392.11149</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>13019.88063</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>114063.25557</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>566263.751</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>7.20648</v>
@@ -2111,133 +2162,153 @@
         <v>38.70084</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>52.21015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>47.68012</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>370.98309</v>
+        <v>1479.18728</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1459.32586</v>
+        <v>79672.49578</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1526.36708</v>
+        <v>849.64577</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3492.63916</v>
+        <v>3810.63761</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2382.39036</v>
+        <v>4469.81108</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2150.55929</v>
+        <v>2617.083</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2545.61201</v>
+        <v>31878.47022</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3119.58075</v>
+        <v>1561.94335</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3439.45783</v>
+        <v>41534.63211999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2231.36853</v>
+        <v>3903.82841</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>6794.49074</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10770.52094</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>34968.278</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3958.50573</v>
+        <v>20168.39099</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3836.12016</v>
+        <v>39932.77301</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5684.499350000001</v>
+        <v>10997.43784</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4917.600350000001</v>
+        <v>5902.86025</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>11345.18981</v>
+        <v>18035.64841</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>14912.46529</v>
+        <v>20780.75616</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>21077.99957</v>
+        <v>46402.23153</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>13784.38957</v>
+        <v>37013.25172</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>11925.67576</v>
+        <v>77180.18981</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>68396.91724</v>
+        <v>541417.07604</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>19712.94737</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>117792.71287</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>337691.998</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1.21778</v>
+        <v>12.04783</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>28.05539</v>
+        <v>29.00184</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>39.6176</v>
+        <v>73.17524</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>19.27955</v>
+        <v>17.09307</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>43.07380000000001</v>
+        <v>41.5538</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>44.66416</v>
+        <v>44.17691000000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>41.87472999999999</v>
+        <v>41.13448</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>26.66484</v>
+        <v>45.76322</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>14.07398</v>
+        <v>28.72276</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>299.86552</v>
+        <v>1317.44942</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4.46369</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>82.02579</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>13.002</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>0</v>
+        <v>4565.18964</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>13.51606</v>
@@ -2246,43 +2317,48 @@
         <v>0.39464</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>12.9682</v>
+        <v>49.14361</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>0</v>
+        <v>57.09575</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>58.76619</v>
+        <v>346.4338</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>238.81367</v>
+        <v>393.16068</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2571.91192</v>
+        <v>31.0931</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>887.32512</v>
+        <v>472.82346</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2.01524</v>
+        <v>5352.223470000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2111.32939</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>26998.4103</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>10967.792</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0</v>
+        <v>45.69856</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>0</v>
+        <v>2364.9</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>0.35481</v>
@@ -2303,55 +2379,65 @@
         <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1.55774</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2.726</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1989.21906</v>
+        <v>13480.24214</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2064.45727</v>
+        <v>13934.62073</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3628.11006</v>
+        <v>4070.74488</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2378.99362</v>
+        <v>4066.5228</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>9227.455539999999</v>
+        <v>12934.14705</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>10253.9096</v>
+        <v>18806.19411</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>15107.64932</v>
+        <v>36079.58443</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>9151.6819</v>
+        <v>36037.44772</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>7786.24326</v>
+        <v>35714.84366000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>60034.41672</v>
+        <v>527544.59861</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>16037.44462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>82702.26422999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>307203.286</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2366,16 +2452,16 @@
         <v>43.74831</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>2715.83815</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>1.12551</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0</v>
+        <v>5079.18516</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>206.35476</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
@@ -2384,13 +2470,18 @@
         <v>276.4887199999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>47.76542</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1968.06889</v>
+        <v>2065.21282</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1641.21244</v>
+        <v>25866.75538</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1966.60933</v>
+        <v>4438.45536</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2459.91302</v>
+        <v>1723.65481</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2030.19623</v>
+        <v>2242.54942</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4548.696010000001</v>
+        <v>1577.52201</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5689.66185</v>
+        <v>4809.16678</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1948.77802</v>
+        <v>607.2400299999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3238.0334</v>
+        <v>40963.79993</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7782.5733</v>
+        <v>6926.31582</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1511.94425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8010.012549999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>19505.192</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1512.69794</v>
+        <v>10759.5839</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1614.0323</v>
+        <v>6766.64843</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2641.95704</v>
+        <v>3416.58619</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4613.85548</v>
+        <v>7845.26958</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5600.44309</v>
+        <v>10757.36478</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6254.845699999999</v>
+        <v>16000.85587</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6046.24641</v>
+        <v>19531.40053</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4835.46362</v>
+        <v>48633.3763</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>6748.3456</v>
+        <v>52636.17103</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>16316.04822</v>
+        <v>107854.36967</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>23466.42461</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>48951.01473999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>139333.509</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1463.23679</v>
+        <v>5360.28132</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1398.23043</v>
+        <v>2508.89317</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2519.09182</v>
+        <v>3014.15839</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>3622.51788</v>
+        <v>6853.931979999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3905.8477</v>
+        <v>8574.019540000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4793.42041</v>
+        <v>14193.64492</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5748.11414</v>
+        <v>17412.79554</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4681.686140000001</v>
+        <v>42510.85489</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6444.10476</v>
+        <v>46497.06208</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>15776.51625</v>
+        <v>78035.71457</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>22106.79595</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>47591.5809</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>135254.161</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>49.46115</v>
+        <v>5399.30258</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>215.80187</v>
+        <v>4257.75526</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>122.86522</v>
+        <v>402.4278</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>991.3376</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1694.59539</v>
+        <v>2183.34524</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1461.42529</v>
+        <v>1807.21095</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>298.13227</v>
+        <v>2118.60499</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>153.77748</v>
+        <v>6122.52141</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>304.24084</v>
+        <v>6139.10895</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>539.53197</v>
+        <v>29818.6551</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1359.62866</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1359.43384</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4079.348</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-3739.44089</v>
+        <v>-10134.49531</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-462.0309100000002</v>
+        <v>54025.90837</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-8280.555700000001</v>
+        <v>3084.30417</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-16047.44849</v>
+        <v>-12389.12265</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-20883.86386</v>
+        <v>-850.78407</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-21172.61684</v>
+        <v>-19078.43031</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-26567.93704</v>
+        <v>-20633.11597</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-14474.2527</v>
+        <v>-51980.27938</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-8152.99042</v>
+        <v>-51776.88384999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-15862.09493</v>
+        <v>872961.58088</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-31015.20498</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>97186.43874</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>900805.767</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1036.89719</v>
+        <v>9323.057429999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1209.04006</v>
+        <v>1646.75783</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3126.42778</v>
+        <v>3241.70508</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4977.58486</v>
+        <v>8252.725200000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3830.57478</v>
+        <v>7868.00262</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>4725.84557</v>
+        <v>8059.803390000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5030.187879999999</v>
+        <v>9546.006880000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4979.81901</v>
+        <v>4321.16634</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>4003.87839</v>
+        <v>12433.65561</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11255.67029</v>
+        <v>15697.56144</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>9443.449619999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>8314.59828</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>54392.394</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>9.16939</v>
+        <v>26.38816</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0.12334</v>
+        <v>7.25102</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>110.92953</v>
+        <v>211.61153</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2.70726</v>
+        <v>103.06204</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>118.70664</v>
+        <v>2553.51652</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>42.62843</v>
+        <v>58.25923</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>11.39952</v>
+        <v>25.46732</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>77.63784</v>
+        <v>71.38853999999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>8.355120000000001</v>
+        <v>247.57541</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>64.81947</v>
+        <v>63.88294999999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>478.24776</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>53.68616</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>53.453</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1027.7278</v>
+        <v>9296.66927</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1208.91672</v>
+        <v>1639.50681</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3015.49825</v>
+        <v>3030.093550000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4974.8776</v>
+        <v>8149.66316</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3711.86814</v>
+        <v>5314.4861</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4683.21714</v>
+        <v>8001.54416</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5018.78836</v>
+        <v>9520.539560000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4902.18117</v>
+        <v>4249.7778</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3995.52327</v>
+        <v>12186.0802</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>11190.85082</v>
+        <v>15633.67849</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>8965.201860000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8260.912119999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>54338.941</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3362.5656</v>
+        <v>10247.20255</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1907.55029</v>
+        <v>11134.61663</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>9506.564109999999</v>
+        <v>10522.12294</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>6021.268440000001</v>
+        <v>11840.74873</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4977.495889999999</v>
+        <v>13676.17587</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>8440.703730000001</v>
+        <v>9668.85655</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>16881.10652</v>
+        <v>19020.91594</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>14703.86236</v>
+        <v>16727.54781</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>9489.957940000002</v>
+        <v>15274.11171</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>22659.33402</v>
+        <v>36794.15551999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>22508.13711</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>48497.50803</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>83456.272</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>883.39265</v>
+        <v>2158.55973</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>574.94909</v>
+        <v>2332.98917</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>670.4204599999999</v>
+        <v>698.52116</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1732.01845</v>
+        <v>3658.72643</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1333.48479</v>
+        <v>6507.74698</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3868.93109</v>
+        <v>3249.8921</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3108.88129</v>
+        <v>5295.96368</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4613.700150000001</v>
+        <v>7217.758080000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2261.971059999999</v>
+        <v>3983.07023</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>6218.940689999999</v>
+        <v>10337.72412</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>10695.86102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>32361.69007</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>42795.416</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>982.0872900000001</v>
+        <v>1776.90974</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>185.50207</v>
+        <v>1662.85017</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>226.24883</v>
+        <v>1257.79952</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>344.70116</v>
+        <v>1458.70222</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>117.20515</v>
+        <v>791.7746800000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>426.72599</v>
+        <v>1232.12332</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1686.74645</v>
+        <v>3445.2351</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1212.83505</v>
+        <v>1299.45207</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>910.33899</v>
+        <v>3491.38837</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>224.53265</v>
+        <v>270.50093</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>755.8088299999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1310.13426</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1184.35</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1497.08566</v>
+        <v>6311.73308</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1147.09913</v>
+        <v>7138.77729</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>8609.89482</v>
+        <v>8565.80226</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3944.54883</v>
+        <v>6723.32008</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3526.80595</v>
+        <v>6376.65421</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4145.04665</v>
+        <v>5186.84113</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>12085.47878</v>
+        <v>10279.71716</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>8877.327160000001</v>
+        <v>8210.337660000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>6317.64789</v>
+        <v>7799.653109999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>16215.86068</v>
+        <v>26185.93047</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11056.46726</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>14825.6837</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>39476.506</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-6065.1093</v>
+        <v>-11058.64043</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1160.54114</v>
+        <v>44538.04957</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-14660.69203</v>
+        <v>-4196.11369</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-17091.13207</v>
+        <v>-15977.14618</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-22030.78497</v>
+        <v>-6658.95732</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-24887.475</v>
+        <v>-20687.48347</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-38418.85568</v>
+        <v>-30108.02503</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-24198.29605</v>
+        <v>-64386.66085</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-13639.06997</v>
+        <v>-54617.33995</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-27265.75866</v>
+        <v>851864.9868</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-44079.89247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>57003.52899</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>871741.889</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>959.2337199999999</v>
+        <v>1083.4974</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2061.37732</v>
+        <v>11532.68685</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2158.30542</v>
+        <v>2429.91082</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1689.69436</v>
+        <v>4065.51288</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1522.67498</v>
+        <v>6098.27963</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1585.27554</v>
+        <v>2882.34171</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1317.33122</v>
+        <v>2430.78821</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1353.2227</v>
+        <v>1572.53903</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2442.77695</v>
+        <v>2869.50702</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>7591.01558</v>
+        <v>49663.28146</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>6092.00626</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>10518.11623</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>67561.255</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-7024.343019999999</v>
+        <v>-12142.13783</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-3221.91846</v>
+        <v>33005.36272</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-16818.99745</v>
+        <v>-6626.02451</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-18780.82643</v>
+        <v>-20042.65906</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-23553.45995</v>
+        <v>-12757.23695</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-26472.75054</v>
+        <v>-23569.82518</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-39736.1869</v>
+        <v>-32538.81324</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-25551.51875</v>
+        <v>-65959.19988</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-16081.84692</v>
+        <v>-57486.84697</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-34856.77424</v>
+        <v>802201.70534</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-50171.89873</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>46485.41276</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>804180.634</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>104</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>142</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>